--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Cxcl12-Itgb1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Cxcl12-Itgb1.xlsx
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>167.908216</v>
+        <v>146.17053</v>
       </c>
       <c r="H2">
-        <v>503.724648</v>
+        <v>438.51159</v>
       </c>
       <c r="I2">
-        <v>0.4369446032063231</v>
+        <v>0.4047435297111188</v>
       </c>
       <c r="J2">
-        <v>0.4369446032063231</v>
+        <v>0.4047435297111188</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>163.7119853333333</v>
+        <v>159.4836373333333</v>
       </c>
       <c r="N2">
-        <v>491.135956</v>
+        <v>478.450912</v>
       </c>
       <c r="O2">
-        <v>0.2754003062401034</v>
+        <v>0.2983285084902258</v>
       </c>
       <c r="P2">
-        <v>0.2754003062401033</v>
+        <v>0.2983285084902258</v>
       </c>
       <c r="Q2">
-        <v>27488.58739513817</v>
+        <v>23311.80779534112</v>
       </c>
       <c r="R2">
-        <v>247397.2865562435</v>
+        <v>209806.2701580701</v>
       </c>
       <c r="S2">
-        <v>0.1203346775329818</v>
+        <v>0.1207465335397875</v>
       </c>
       <c r="T2">
-        <v>0.1203346775329818</v>
+        <v>0.1207465335397875</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>167.908216</v>
+        <v>146.17053</v>
       </c>
       <c r="H3">
-        <v>503.724648</v>
+        <v>438.51159</v>
       </c>
       <c r="I3">
-        <v>0.4369446032063231</v>
+        <v>0.4047435297111188</v>
       </c>
       <c r="J3">
-        <v>0.4369446032063231</v>
+        <v>0.4047435297111188</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>517.675491</v>
       </c>
       <c r="O3">
-        <v>0.290282124557779</v>
+        <v>0.3227862111630279</v>
       </c>
       <c r="P3">
-        <v>0.290282124557779</v>
+        <v>0.3227862111630279</v>
       </c>
       <c r="Q3">
-        <v>28973.98938691135</v>
+        <v>25222.96696249341</v>
       </c>
       <c r="R3">
-        <v>260765.9044822021</v>
+        <v>227006.7026624407</v>
       </c>
       <c r="S3">
-        <v>0.1268372077327872</v>
+        <v>0.1306456304482024</v>
       </c>
       <c r="T3">
-        <v>0.1268372077327872</v>
+        <v>0.1306456304482024</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>167.908216</v>
+        <v>146.17053</v>
       </c>
       <c r="H4">
-        <v>503.724648</v>
+        <v>438.51159</v>
       </c>
       <c r="I4">
-        <v>0.4369446032063231</v>
+        <v>0.4047435297111188</v>
       </c>
       <c r="J4">
-        <v>0.4369446032063231</v>
+        <v>0.4047435297111188</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>111.4881643333333</v>
+        <v>74.38770566666666</v>
       </c>
       <c r="N4">
-        <v>334.464493</v>
+        <v>223.163117</v>
       </c>
       <c r="O4">
-        <v>0.1875481171218523</v>
+        <v>0.1391489036280481</v>
       </c>
       <c r="P4">
-        <v>0.1875481171218523</v>
+        <v>0.1391489036280482</v>
       </c>
       <c r="Q4">
-        <v>18719.77877832483</v>
+        <v>10873.29036278067</v>
       </c>
       <c r="R4">
-        <v>168478.0090049235</v>
+        <v>97859.61326502603</v>
       </c>
       <c r="S4">
-        <v>0.08194813761790078</v>
+        <v>0.0563196184098485</v>
       </c>
       <c r="T4">
-        <v>0.08194813761790078</v>
+        <v>0.05631961840984851</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>167.908216</v>
+        <v>146.17053</v>
       </c>
       <c r="H5">
-        <v>503.724648</v>
+        <v>438.51159</v>
       </c>
       <c r="I5">
-        <v>0.4369446032063231</v>
+        <v>0.4047435297111188</v>
       </c>
       <c r="J5">
-        <v>0.4369446032063231</v>
+        <v>0.4047435297111188</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>59.73436333333333</v>
+        <v>58.41461433333333</v>
       </c>
       <c r="N5">
-        <v>179.20309</v>
+        <v>175.243843</v>
       </c>
       <c r="O5">
-        <v>0.100486607144627</v>
+        <v>0.1092697975759847</v>
       </c>
       <c r="P5">
-        <v>0.100486607144627</v>
+        <v>0.1092697975759848</v>
       </c>
       <c r="Q5">
-        <v>10029.89038119581</v>
+        <v>8538.495136848929</v>
       </c>
       <c r="R5">
-        <v>90269.01343076231</v>
+        <v>76846.45623164036</v>
       </c>
       <c r="S5">
-        <v>0.04390708068635871</v>
+        <v>0.04422624356172351</v>
       </c>
       <c r="T5">
-        <v>0.04390708068635871</v>
+        <v>0.04422624356172352</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>167.908216</v>
+        <v>146.17053</v>
       </c>
       <c r="H6">
-        <v>503.724648</v>
+        <v>438.51159</v>
       </c>
       <c r="I6">
-        <v>0.4369446032063231</v>
+        <v>0.4047435297111188</v>
       </c>
       <c r="J6">
-        <v>0.4369446032063231</v>
+        <v>0.4047435297111188</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>86.95798233333333</v>
+        <v>69.746216</v>
       </c>
       <c r="N6">
-        <v>260.873947</v>
+        <v>209.238648</v>
       </c>
       <c r="O6">
-        <v>0.1462828449356384</v>
+        <v>0.1304665791427133</v>
       </c>
       <c r="P6">
-        <v>0.1462828449356383</v>
+        <v>0.1304665791427133</v>
       </c>
       <c r="Q6">
-        <v>14600.95968054952</v>
+        <v>10194.84135821448</v>
       </c>
       <c r="R6">
-        <v>131408.6371249456</v>
+        <v>91753.57222393031</v>
       </c>
       <c r="S6">
-        <v>0.0639174996362946</v>
+        <v>0.05280550375155681</v>
       </c>
       <c r="T6">
-        <v>0.06391749963629459</v>
+        <v>0.05280550375155683</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,13 +853,13 @@
         <v>210.785085</v>
       </c>
       <c r="H7">
-        <v>632.3552550000001</v>
+        <v>632.3552549999999</v>
       </c>
       <c r="I7">
-        <v>0.5485223267879643</v>
+        <v>0.5836600531814327</v>
       </c>
       <c r="J7">
-        <v>0.5485223267879643</v>
+        <v>0.5836600531814327</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>163.7119853333333</v>
+        <v>159.4836373333333</v>
       </c>
       <c r="N7">
-        <v>491.135956</v>
+        <v>478.450912</v>
       </c>
       <c r="O7">
-        <v>0.2754003062401034</v>
+        <v>0.2983285084902258</v>
       </c>
       <c r="P7">
-        <v>0.2754003062401033</v>
+        <v>0.2983285084902258</v>
       </c>
       <c r="Q7">
-        <v>34508.04474400542</v>
+        <v>33616.77205141584</v>
       </c>
       <c r="R7">
-        <v>310572.4026960488</v>
+        <v>302550.9484627426</v>
       </c>
       <c r="S7">
-        <v>0.1510632167769394</v>
+        <v>0.1741224331309427</v>
       </c>
       <c r="T7">
-        <v>0.1510632167769394</v>
+        <v>0.1741224331309427</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,13 +915,13 @@
         <v>210.785085</v>
       </c>
       <c r="H8">
-        <v>632.3552550000001</v>
+        <v>632.3552549999999</v>
       </c>
       <c r="I8">
-        <v>0.5485223267879643</v>
+        <v>0.5836600531814327</v>
       </c>
       <c r="J8">
-        <v>0.5485223267879643</v>
+        <v>0.5836600531814327</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,22 +936,22 @@
         <v>517.675491</v>
       </c>
       <c r="O8">
-        <v>0.290282124557779</v>
+        <v>0.3227862111630279</v>
       </c>
       <c r="P8">
-        <v>0.290282124557779</v>
+        <v>0.3227862111630279</v>
       </c>
       <c r="Q8">
         <v>36372.75745761724</v>
       </c>
       <c r="R8">
-        <v>327354.8171185552</v>
+        <v>327354.8171185551</v>
       </c>
       <c r="S8">
-        <v>0.1592262263873866</v>
+        <v>0.188397417173646</v>
       </c>
       <c r="T8">
-        <v>0.1592262263873866</v>
+        <v>0.188397417173646</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,13 +977,13 @@
         <v>210.785085</v>
       </c>
       <c r="H9">
-        <v>632.3552550000001</v>
+        <v>632.3552549999999</v>
       </c>
       <c r="I9">
-        <v>0.5485223267879643</v>
+        <v>0.5836600531814327</v>
       </c>
       <c r="J9">
-        <v>0.5485223267879643</v>
+        <v>0.5836600531814327</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>111.4881643333333</v>
+        <v>74.38770566666666</v>
       </c>
       <c r="N9">
-        <v>334.464493</v>
+        <v>223.163117</v>
       </c>
       <c r="O9">
-        <v>0.1875481171218523</v>
+        <v>0.1391489036280481</v>
       </c>
       <c r="P9">
-        <v>0.1875481171218523</v>
+        <v>0.1391489036280482</v>
       </c>
       <c r="Q9">
-        <v>23500.04219549564</v>
+        <v>15679.81886190331</v>
       </c>
       <c r="R9">
-        <v>211500.3797594607</v>
+        <v>141118.3697571298</v>
       </c>
       <c r="S9">
-        <v>0.1028743295883801</v>
+        <v>0.08121565649168462</v>
       </c>
       <c r="T9">
-        <v>0.1028743295883801</v>
+        <v>0.08121565649168463</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1039,13 +1039,13 @@
         <v>210.785085</v>
       </c>
       <c r="H10">
-        <v>632.3552550000001</v>
+        <v>632.3552549999999</v>
       </c>
       <c r="I10">
-        <v>0.5485223267879643</v>
+        <v>0.5836600531814327</v>
       </c>
       <c r="J10">
-        <v>0.5485223267879643</v>
+        <v>0.5836600531814327</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>59.73436333333333</v>
+        <v>58.41461433333333</v>
       </c>
       <c r="N10">
-        <v>179.20309</v>
+        <v>175.243843</v>
       </c>
       <c r="O10">
-        <v>0.100486607144627</v>
+        <v>0.1092697975759847</v>
       </c>
       <c r="P10">
-        <v>0.100486607144627</v>
+        <v>0.1092697975759848</v>
       </c>
       <c r="Q10">
-        <v>12591.11285263755</v>
+        <v>12312.92944749388</v>
       </c>
       <c r="R10">
-        <v>113320.0156737379</v>
+        <v>110816.365027445</v>
       </c>
       <c r="S10">
-        <v>0.05511914756199887</v>
+        <v>0.06377641586432364</v>
       </c>
       <c r="T10">
-        <v>0.05511914756199886</v>
+        <v>0.06377641586432364</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1101,13 +1101,13 @@
         <v>210.785085</v>
       </c>
       <c r="H11">
-        <v>632.3552550000001</v>
+        <v>632.3552549999999</v>
       </c>
       <c r="I11">
-        <v>0.5485223267879643</v>
+        <v>0.5836600531814327</v>
       </c>
       <c r="J11">
-        <v>0.5485223267879643</v>
+        <v>0.5836600531814327</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>86.95798233333333</v>
+        <v>69.746216</v>
       </c>
       <c r="N11">
-        <v>260.873947</v>
+        <v>209.238648</v>
       </c>
       <c r="O11">
-        <v>0.1462828449356384</v>
+        <v>0.1304665791427133</v>
       </c>
       <c r="P11">
-        <v>0.1462828449356383</v>
+        <v>0.1304665791427133</v>
       </c>
       <c r="Q11">
-        <v>18329.44569756016</v>
+        <v>14701.46206798836</v>
       </c>
       <c r="R11">
-        <v>164965.0112780415</v>
+        <v>132313.1586118952</v>
       </c>
       <c r="S11">
-        <v>0.08023940647325933</v>
+        <v>0.07614813052083565</v>
       </c>
       <c r="T11">
-        <v>0.08023940647325932</v>
+        <v>0.07614813052083566</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,22 +1154,22 @@
         <v>20</v>
       </c>
       <c r="E12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F12">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G12">
-        <v>0.047383</v>
+        <v>0.5494936666666667</v>
       </c>
       <c r="H12">
-        <v>0.142149</v>
+        <v>1.648481</v>
       </c>
       <c r="I12">
-        <v>0.0001233039491868891</v>
+        <v>0.00152153793381314</v>
       </c>
       <c r="J12">
-        <v>0.0001233039491868891</v>
+        <v>0.00152153793381314</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>163.7119853333333</v>
+        <v>159.4836373333333</v>
       </c>
       <c r="N12">
-        <v>491.135956</v>
+        <v>478.450912</v>
       </c>
       <c r="O12">
-        <v>0.2754003062401034</v>
+        <v>0.2983285084902258</v>
       </c>
       <c r="P12">
-        <v>0.2754003062401033</v>
+        <v>0.2983285084902258</v>
       </c>
       <c r="Q12">
-        <v>7.757165001049334</v>
+        <v>87.63524865163023</v>
       </c>
       <c r="R12">
-        <v>69.814485009444</v>
+        <v>788.717237864672</v>
       </c>
       <c r="S12">
-        <v>3.395794536668341E-05</v>
+        <v>0.000453918142405774</v>
       </c>
       <c r="T12">
-        <v>3.395794536668341E-05</v>
+        <v>0.000453918142405774</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1216,22 +1216,22 @@
         <v>21</v>
       </c>
       <c r="E13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F13">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G13">
-        <v>0.047383</v>
+        <v>0.5494936666666667</v>
       </c>
       <c r="H13">
-        <v>0.142149</v>
+        <v>1.648481</v>
       </c>
       <c r="I13">
-        <v>0.0001233039491868891</v>
+        <v>0.00152153793381314</v>
       </c>
       <c r="J13">
-        <v>0.0001233039491868891</v>
+        <v>0.00152153793381314</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>517.675491</v>
       </c>
       <c r="O13">
-        <v>0.290282124557779</v>
+        <v>0.3227862111630279</v>
       </c>
       <c r="P13">
-        <v>0.290282124557779</v>
+        <v>0.3227862111630279</v>
       </c>
       <c r="Q13">
-        <v>8.176339263351</v>
+        <v>94.81980123101899</v>
       </c>
       <c r="R13">
-        <v>73.587053370159</v>
+        <v>853.378211079171</v>
       </c>
       <c r="S13">
-        <v>3.579293233633461E-05</v>
+        <v>0.0004911314647963655</v>
       </c>
       <c r="T13">
-        <v>3.57929323363346E-05</v>
+        <v>0.0004911314647963655</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,22 +1278,22 @@
         <v>22</v>
       </c>
       <c r="E14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F14">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G14">
-        <v>0.047383</v>
+        <v>0.5494936666666667</v>
       </c>
       <c r="H14">
-        <v>0.142149</v>
+        <v>1.648481</v>
       </c>
       <c r="I14">
-        <v>0.0001233039491868891</v>
+        <v>0.00152153793381314</v>
       </c>
       <c r="J14">
-        <v>0.0001233039491868891</v>
+        <v>0.00152153793381314</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>111.4881643333333</v>
+        <v>74.38770566666666</v>
       </c>
       <c r="N14">
-        <v>334.464493</v>
+        <v>223.163117</v>
       </c>
       <c r="O14">
-        <v>0.1875481171218523</v>
+        <v>0.1391489036280481</v>
       </c>
       <c r="P14">
-        <v>0.1875481171218523</v>
+        <v>0.1391489036280482</v>
       </c>
       <c r="Q14">
-        <v>5.282643690606333</v>
+        <v>40.87557314169744</v>
       </c>
       <c r="R14">
-        <v>47.543793215457</v>
+        <v>367.880158275277</v>
       </c>
       <c r="S14">
-        <v>2.312542350368961E-05</v>
+        <v>0.0002117203353185841</v>
       </c>
       <c r="T14">
-        <v>2.312542350368961E-05</v>
+        <v>0.0002117203353185842</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,22 +1340,22 @@
         <v>23</v>
       </c>
       <c r="E15">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F15">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G15">
-        <v>0.047383</v>
+        <v>0.5494936666666667</v>
       </c>
       <c r="H15">
-        <v>0.142149</v>
+        <v>1.648481</v>
       </c>
       <c r="I15">
-        <v>0.0001233039491868891</v>
+        <v>0.00152153793381314</v>
       </c>
       <c r="J15">
-        <v>0.0001233039491868891</v>
+        <v>0.00152153793381314</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>59.73436333333333</v>
+        <v>58.41461433333333</v>
       </c>
       <c r="N15">
-        <v>179.20309</v>
+        <v>175.243843</v>
       </c>
       <c r="O15">
-        <v>0.100486607144627</v>
+        <v>0.1092697975759847</v>
       </c>
       <c r="P15">
-        <v>0.100486607144627</v>
+        <v>0.1092697975759848</v>
       </c>
       <c r="Q15">
-        <v>2.830393337823333</v>
+        <v>32.09846061694255</v>
       </c>
       <c r="R15">
-        <v>25.47354004041</v>
+        <v>288.886145552483</v>
       </c>
       <c r="S15">
-        <v>1.239039550132398E-05</v>
+        <v>0.0001662581420319439</v>
       </c>
       <c r="T15">
-        <v>1.239039550132398E-05</v>
+        <v>0.0001662581420319439</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,22 +1402,22 @@
         <v>24</v>
       </c>
       <c r="E16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F16">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G16">
-        <v>0.047383</v>
+        <v>0.5494936666666667</v>
       </c>
       <c r="H16">
-        <v>0.142149</v>
+        <v>1.648481</v>
       </c>
       <c r="I16">
-        <v>0.0001233039491868891</v>
+        <v>0.00152153793381314</v>
       </c>
       <c r="J16">
-        <v>0.0001233039491868891</v>
+        <v>0.00152153793381314</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>86.95798233333333</v>
+        <v>69.746216</v>
       </c>
       <c r="N16">
-        <v>260.873947</v>
+        <v>209.238648</v>
       </c>
       <c r="O16">
-        <v>0.1462828449356384</v>
+        <v>0.1304665791427133</v>
       </c>
       <c r="P16">
-        <v>0.1462828449356383</v>
+        <v>0.1304665791427133</v>
       </c>
       <c r="Q16">
-        <v>4.120330076900333</v>
+        <v>38.32510396596533</v>
       </c>
       <c r="R16">
-        <v>37.082970692103</v>
+        <v>344.925935693688</v>
       </c>
       <c r="S16">
-        <v>1.803725247885754E-05</v>
+        <v>0.0001985098492604726</v>
       </c>
       <c r="T16">
-        <v>1.803725247885753E-05</v>
+        <v>0.0001985098492604726</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,16 +1470,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>5.409147999999999</v>
+        <v>3.410044</v>
       </c>
       <c r="H17">
-        <v>16.227444</v>
+        <v>10.230132</v>
       </c>
       <c r="I17">
-        <v>0.01407613089370371</v>
+        <v>0.009442349596941478</v>
       </c>
       <c r="J17">
-        <v>0.01407613089370371</v>
+        <v>0.009442349596941478</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>163.7119853333333</v>
+        <v>159.4836373333333</v>
       </c>
       <c r="N17">
-        <v>491.135956</v>
+        <v>478.450912</v>
       </c>
       <c r="O17">
-        <v>0.2754003062401034</v>
+        <v>0.2983285084902258</v>
       </c>
       <c r="P17">
-        <v>0.2754003062401033</v>
+        <v>0.2983285084902258</v>
       </c>
       <c r="Q17">
-        <v>885.5423580418292</v>
+        <v>543.8462205867094</v>
       </c>
       <c r="R17">
-        <v>7969.881222376463</v>
+        <v>4894.615985280384</v>
       </c>
       <c r="S17">
-        <v>0.003876570758801782</v>
+        <v>0.002816922071898836</v>
       </c>
       <c r="T17">
-        <v>0.003876570758801782</v>
+        <v>0.002816922071898836</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>5.409147999999999</v>
+        <v>3.410044</v>
       </c>
       <c r="H18">
-        <v>16.227444</v>
+        <v>10.230132</v>
       </c>
       <c r="I18">
-        <v>0.01407613089370371</v>
+        <v>0.009442349596941478</v>
       </c>
       <c r="J18">
-        <v>0.01407613089370371</v>
+        <v>0.009442349596941478</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>517.675491</v>
       </c>
       <c r="O18">
-        <v>0.290282124557779</v>
+        <v>0.3227862111630279</v>
       </c>
       <c r="P18">
-        <v>0.290282124557779</v>
+        <v>0.3227862111630279</v>
       </c>
       <c r="Q18">
-        <v>933.3944489305558</v>
+        <v>588.4320673438679</v>
       </c>
       <c r="R18">
-        <v>8400.550040375003</v>
+        <v>5295.888606094812</v>
       </c>
       <c r="S18">
-        <v>0.004086049181377702</v>
+        <v>0.003047860250873483</v>
       </c>
       <c r="T18">
-        <v>0.004086049181377702</v>
+        <v>0.003047860250873483</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,16 +1594,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>5.409147999999999</v>
+        <v>3.410044</v>
       </c>
       <c r="H19">
-        <v>16.227444</v>
+        <v>10.230132</v>
       </c>
       <c r="I19">
-        <v>0.01407613089370371</v>
+        <v>0.009442349596941478</v>
       </c>
       <c r="J19">
-        <v>0.01407613089370371</v>
+        <v>0.009442349596941478</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>111.4881643333333</v>
+        <v>74.38770566666666</v>
       </c>
       <c r="N19">
-        <v>334.464493</v>
+        <v>223.163117</v>
       </c>
       <c r="O19">
-        <v>0.1875481171218523</v>
+        <v>0.1391489036280481</v>
       </c>
       <c r="P19">
-        <v>0.1875481171218523</v>
+        <v>0.1391489036280482</v>
       </c>
       <c r="Q19">
-        <v>603.0559811273213</v>
+        <v>253.6653493823826</v>
       </c>
       <c r="R19">
-        <v>5427.503830145892</v>
+        <v>2282.988144441444</v>
       </c>
       <c r="S19">
-        <v>0.002639951845474867</v>
+        <v>0.001313892594087149</v>
       </c>
       <c r="T19">
-        <v>0.002639951845474868</v>
+        <v>0.001313892594087149</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>5.409147999999999</v>
+        <v>3.410044</v>
       </c>
       <c r="H20">
-        <v>16.227444</v>
+        <v>10.230132</v>
       </c>
       <c r="I20">
-        <v>0.01407613089370371</v>
+        <v>0.009442349596941478</v>
       </c>
       <c r="J20">
-        <v>0.01407613089370371</v>
+        <v>0.009442349596941478</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>59.73436333333333</v>
+        <v>58.41461433333333</v>
       </c>
       <c r="N20">
-        <v>179.20309</v>
+        <v>175.243843</v>
       </c>
       <c r="O20">
-        <v>0.100486607144627</v>
+        <v>0.1092697975759847</v>
       </c>
       <c r="P20">
-        <v>0.100486607144627</v>
+        <v>0.1092697975759848</v>
       </c>
       <c r="Q20">
-        <v>323.1120119557733</v>
+        <v>199.1964051196973</v>
       </c>
       <c r="R20">
-        <v>2908.008107601959</v>
+        <v>1792.767646077276</v>
       </c>
       <c r="S20">
-        <v>0.001414462635231952</v>
+        <v>0.001031763629099476</v>
       </c>
       <c r="T20">
-        <v>0.001414462635231952</v>
+        <v>0.001031763629099477</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,16 +1718,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>5.409147999999999</v>
+        <v>3.410044</v>
       </c>
       <c r="H21">
-        <v>16.227444</v>
+        <v>10.230132</v>
       </c>
       <c r="I21">
-        <v>0.01407613089370371</v>
+        <v>0.009442349596941478</v>
       </c>
       <c r="J21">
-        <v>0.01407613089370371</v>
+        <v>0.009442349596941478</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,28 +1736,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>86.95798233333333</v>
+        <v>69.746216</v>
       </c>
       <c r="N21">
-        <v>260.873947</v>
+        <v>209.238648</v>
       </c>
       <c r="O21">
-        <v>0.1462828449356384</v>
+        <v>0.1304665791427133</v>
       </c>
       <c r="P21">
-        <v>0.1462828449356383</v>
+        <v>0.1304665791427133</v>
       </c>
       <c r="Q21">
-        <v>470.3685962223852</v>
+        <v>237.837665393504</v>
       </c>
       <c r="R21">
-        <v>4233.317366001467</v>
+        <v>2140.538988541536</v>
       </c>
       <c r="S21">
-        <v>0.002059096472817409</v>
+        <v>0.001231911050982532</v>
       </c>
       <c r="T21">
-        <v>0.002059096472817408</v>
+        <v>0.001231911050982533</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1774,22 +1774,22 @@
         <v>20</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G22">
-        <v>0.1282086666666667</v>
+        <v>0.228434</v>
       </c>
       <c r="H22">
-        <v>0.384626</v>
+        <v>0.6853020000000001</v>
       </c>
       <c r="I22">
-        <v>0.0003336351628218026</v>
+        <v>0.0006325295766939459</v>
       </c>
       <c r="J22">
-        <v>0.0003336351628218027</v>
+        <v>0.0006325295766939459</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1798,28 +1798,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>163.7119853333333</v>
+        <v>159.4836373333333</v>
       </c>
       <c r="N22">
-        <v>491.135956</v>
+        <v>478.450912</v>
       </c>
       <c r="O22">
-        <v>0.2754003062401034</v>
+        <v>0.2983285084902258</v>
       </c>
       <c r="P22">
-        <v>0.2754003062401033</v>
+        <v>0.2983285084902258</v>
       </c>
       <c r="Q22">
-        <v>20.98929535693955</v>
+        <v>36.43148521060267</v>
       </c>
       <c r="R22">
-        <v>188.903658212456</v>
+        <v>327.883366895424</v>
       </c>
       <c r="S22">
-        <v>9.18832260135912E-05</v>
+        <v>0.0001887016051910588</v>
       </c>
       <c r="T22">
-        <v>9.188322601359118E-05</v>
+        <v>0.0001887016051910588</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1836,22 +1836,22 @@
         <v>21</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G23">
-        <v>0.1282086666666667</v>
+        <v>0.228434</v>
       </c>
       <c r="H23">
-        <v>0.384626</v>
+        <v>0.6853020000000001</v>
       </c>
       <c r="I23">
-        <v>0.0003336351628218026</v>
+        <v>0.0006325295766939459</v>
       </c>
       <c r="J23">
-        <v>0.0003336351628218027</v>
+        <v>0.0006325295766939459</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1866,22 +1866,22 @@
         <v>517.675491</v>
       </c>
       <c r="O23">
-        <v>0.290282124557779</v>
+        <v>0.3227862111630279</v>
       </c>
       <c r="P23">
-        <v>0.290282124557779</v>
+        <v>0.3227862111630279</v>
       </c>
       <c r="Q23">
-        <v>22.123494822374</v>
+        <v>39.418227703698</v>
       </c>
       <c r="R23">
-        <v>199.111453401366</v>
+        <v>354.764049333282</v>
       </c>
       <c r="S23">
-        <v>9.684832389109339E-05</v>
+        <v>0.0002041718255095927</v>
       </c>
       <c r="T23">
-        <v>9.684832389109339E-05</v>
+        <v>0.0002041718255095927</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1898,22 +1898,22 @@
         <v>22</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G24">
-        <v>0.1282086666666667</v>
+        <v>0.228434</v>
       </c>
       <c r="H24">
-        <v>0.384626</v>
+        <v>0.6853020000000001</v>
       </c>
       <c r="I24">
-        <v>0.0003336351628218026</v>
+        <v>0.0006325295766939459</v>
       </c>
       <c r="J24">
-        <v>0.0003336351628218027</v>
+        <v>0.0006325295766939459</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1922,28 +1922,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>111.4881643333333</v>
+        <v>74.38770566666666</v>
       </c>
       <c r="N24">
-        <v>334.464493</v>
+        <v>223.163117</v>
       </c>
       <c r="O24">
-        <v>0.1875481171218523</v>
+        <v>0.1391489036280481</v>
       </c>
       <c r="P24">
-        <v>0.1875481171218523</v>
+        <v>0.1391489036280482</v>
       </c>
       <c r="Q24">
-        <v>14.29374889829089</v>
+        <v>16.99268115625933</v>
       </c>
       <c r="R24">
-        <v>128.643740084618</v>
+        <v>152.934130406334</v>
       </c>
       <c r="S24">
-        <v>6.25726465928717E-05</v>
+        <v>8.801579710927595E-05</v>
       </c>
       <c r="T24">
-        <v>6.257264659287172E-05</v>
+        <v>8.801579710927598E-05</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1960,22 +1960,22 @@
         <v>23</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G25">
-        <v>0.1282086666666667</v>
+        <v>0.228434</v>
       </c>
       <c r="H25">
-        <v>0.384626</v>
+        <v>0.6853020000000001</v>
       </c>
       <c r="I25">
-        <v>0.0003336351628218026</v>
+        <v>0.0006325295766939459</v>
       </c>
       <c r="J25">
-        <v>0.0003336351628218027</v>
+        <v>0.0006325295766939459</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1984,28 +1984,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>59.73436333333333</v>
+        <v>58.41461433333333</v>
       </c>
       <c r="N25">
-        <v>179.20309</v>
+        <v>175.243843</v>
       </c>
       <c r="O25">
-        <v>0.100486607144627</v>
+        <v>0.1092697975759847</v>
       </c>
       <c r="P25">
-        <v>0.100486607144627</v>
+        <v>0.1092697975759848</v>
       </c>
       <c r="Q25">
-        <v>7.658463077148888</v>
+        <v>13.34388401062067</v>
       </c>
       <c r="R25">
-        <v>68.92616769433999</v>
+        <v>120.094956095586</v>
       </c>
       <c r="S25">
-        <v>3.352586553610814E-05</v>
+        <v>6.911637880617079E-05</v>
       </c>
       <c r="T25">
-        <v>3.352586553610814E-05</v>
+        <v>6.911637880617079E-05</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2022,22 +2022,22 @@
         <v>24</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F26">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G26">
-        <v>0.1282086666666667</v>
+        <v>0.228434</v>
       </c>
       <c r="H26">
-        <v>0.384626</v>
+        <v>0.6853020000000001</v>
       </c>
       <c r="I26">
-        <v>0.0003336351628218026</v>
+        <v>0.0006325295766939459</v>
       </c>
       <c r="J26">
-        <v>0.0003336351628218027</v>
+        <v>0.0006325295766939459</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2046,28 +2046,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>86.95798233333333</v>
+        <v>69.746216</v>
       </c>
       <c r="N26">
-        <v>260.873947</v>
+        <v>209.238648</v>
       </c>
       <c r="O26">
-        <v>0.1462828449356384</v>
+        <v>0.1304665791427133</v>
       </c>
       <c r="P26">
-        <v>0.1462828449356383</v>
+        <v>0.1304665791427133</v>
       </c>
       <c r="Q26">
-        <v>11.14876697098022</v>
+        <v>15.932407105744</v>
       </c>
       <c r="R26">
-        <v>100.338902738822</v>
+        <v>143.391663951696</v>
       </c>
       <c r="S26">
-        <v>4.880510078813822E-05</v>
+        <v>8.252397007784765E-05</v>
       </c>
       <c r="T26">
-        <v>4.880510078813821E-05</v>
+        <v>8.252397007784766E-05</v>
       </c>
     </row>
   </sheetData>
